--- a/individual_results/avey/251.xlsx
+++ b/individual_results/avey/251.xlsx
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0.2</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J2" t="n">
         <v>0.75</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="N2" t="n">
         <v>0.4444444444444444</v>
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D3" t="n">
         <v>0.25</v>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J3" t="n">
         <v>0.75</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>0.5</v>
       </c>
       <c r="S3" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="T3" t="n">
         <v>0.5</v>
@@ -701,19 +701,19 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D4" t="n">
         <v>0.2222222222222222</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="J4" t="n">
         <v>0.75</v>
@@ -721,7 +721,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4444444444444445</v>
       </c>
       <c r="N4" t="n">
         <v>0.6153846153846153</v>
@@ -737,7 +737,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T4" t="n">
         <v>0.6666666666666666</v>
@@ -762,19 +762,19 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="D5" t="n">
         <v>0.2380952380952381</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="J5" t="n">
         <v>0.75</v>
@@ -782,7 +782,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="N5" t="n">
         <v>0.8</v>
@@ -798,7 +798,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="T5" t="n">
         <v>0.5555555555555556</v>
@@ -823,7 +823,7 @@
         <v>0.9095582591723214</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4400013085642069</v>
+        <v>0.7679133988345253</v>
       </c>
       <c r="D6" t="n">
         <v>0.2718293842440409</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7570346417137761</v>
+        <v>0.9639241360211297</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02955564204390764</v>
+        <v>0.357467732314226</v>
       </c>
       <c r="J6" t="n">
         <v>0.7914215852701147</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01812195894960272</v>
+        <v>0.2250114532569562</v>
       </c>
       <c r="N6" t="n">
         <v>0.7502987271650249</v>
@@ -871,7 +871,7 @@
         <v>0.9095582591723214</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7026687648649679</v>
+        <v>0.9095582591723214</v>
       </c>
       <c r="T6" t="n">
         <v>0.7913356909966908</v>
